--- a/统计学/test.xlsx
+++ b/统计学/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="22485" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>性别</t>
   </si>
@@ -89,6 +89,62 @@
   </si>
   <si>
     <t>样本</t>
+  </si>
+  <si>
+    <t>条形图</t>
+  </si>
+  <si>
+    <t>直方图</t>
+  </si>
+  <si>
+    <t>长表示各类别的频数
+宽表示类别，没有数值意义</t>
+  </si>
+  <si>
+    <t>长表示每一组的频数或频率
+宽表示各组的组距</t>
+  </si>
+  <si>
+    <t>各个矩形分开排列</t>
+  </si>
+  <si>
+    <t>各个矩形连续排列</t>
+  </si>
+  <si>
+    <t>展示分类数据</t>
+  </si>
+  <si>
+    <t>展示数值型数据</t>
+  </si>
+  <si>
+    <t>茎叶图</t>
+  </si>
+  <si>
+    <t>很好地显示数据分布情况</t>
+  </si>
+  <si>
+    <t>给出数据分布情况</t>
+  </si>
+  <si>
+    <t>不能保留原始数据信息</t>
+  </si>
+  <si>
+    <t>保留原始数据信息</t>
+  </si>
+  <si>
+    <t>适用大批量数据</t>
+  </si>
+  <si>
+    <t>适用小批量数据</t>
+  </si>
+  <si>
+    <t>大蒜味</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>购买力</t>
   </si>
 </sst>
 </file>
@@ -96,15 +152,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,23 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,21 +214,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,15 +227,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,32 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,15 +295,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,43 +319,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,139 +493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,22 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,8 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +567,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -527,30 +607,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,157 +630,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -791,6 +856,1073 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>特殊口味销量</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>抹布味</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$96:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$96:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>大蒜味</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$96:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$96:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80765819"/>
+        <c:axId val="603659024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80765819"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603659024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="603659024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80765819"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4597400" y="17932400"/>
+        <a:ext cx="1952625" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,10 +2183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1062,7 +2194,8 @@
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -1258,175 +2391,470 @@
       </c>
     </row>
     <row r="29" spans="10:13">
-      <c r="J29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="J29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:13">
-      <c r="J30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="J30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:13">
-      <c r="J31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="J31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="10:13">
-      <c r="J32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="J32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:13">
-      <c r="J33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="J33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:13">
-      <c r="J34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="J34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:13">
-      <c r="J35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="J35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:13">
-      <c r="J36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="J36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:13">
-      <c r="J37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="J37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:13">
-      <c r="J38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="3" t="s">
+      <c r="J38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:13">
-      <c r="J39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="J39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="10:13">
-      <c r="J40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="J40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="4:5">
+      <c r="D55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" ht="71" customHeight="1" spans="4:5">
+      <c r="D56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" ht="36" customHeight="1" spans="4:5">
+      <c r="D57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" ht="29" customHeight="1" spans="4:5">
+      <c r="D58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" ht="25" customHeight="1" spans="4:5">
+      <c r="D63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" ht="24" customHeight="1" spans="4:5">
+      <c r="D64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" ht="24" customHeight="1" spans="4:5">
+      <c r="D65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" ht="32" customHeight="1" spans="4:5">
+      <c r="D66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5">
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="C96">
+        <v>2001</v>
+      </c>
+      <c r="D96">
+        <v>22</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97">
+        <v>2002</v>
+      </c>
+      <c r="D97">
+        <v>33</v>
+      </c>
+      <c r="E97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="C98">
+        <v>2003</v>
+      </c>
+      <c r="D98">
+        <v>45</v>
+      </c>
+      <c r="E98">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="C99">
+        <v>2004</v>
+      </c>
+      <c r="D99">
+        <v>56</v>
+      </c>
+      <c r="E99">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100">
+        <v>2005</v>
+      </c>
+      <c r="D100">
+        <v>89</v>
+      </c>
+      <c r="E100">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101">
+        <v>2006</v>
+      </c>
+      <c r="D101">
+        <v>124</v>
+      </c>
+      <c r="E101">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5">
+      <c r="C102">
+        <v>2007</v>
+      </c>
+      <c r="D102">
+        <v>435</v>
+      </c>
+      <c r="E102">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103">
+        <v>2008</v>
+      </c>
+      <c r="D103">
+        <v>555</v>
+      </c>
+      <c r="E103">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5">
+      <c r="C104">
+        <v>2009</v>
+      </c>
+      <c r="D104">
+        <v>536</v>
+      </c>
+      <c r="E104">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="C105">
+        <v>2010</v>
+      </c>
+      <c r="D105">
+        <v>567</v>
+      </c>
+      <c r="E105">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="D118">
+        <v>23</v>
+      </c>
+      <c r="E118">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="D120">
+        <v>14</v>
+      </c>
+      <c r="E120">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5">
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="D122">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5">
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="D124">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5">
+      <c r="D125">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="D126">
+        <v>33</v>
+      </c>
+      <c r="E126">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="D127">
+        <v>26</v>
+      </c>
+      <c r="E127">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5">
+      <c r="D128">
+        <v>22</v>
+      </c>
+      <c r="E128">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/统计学/test.xlsx
+++ b/统计学/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>性别</t>
   </si>
@@ -145,6 +145,48 @@
   </si>
   <si>
     <t>购买力</t>
+  </si>
+  <si>
+    <t>众数</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>平均数</t>
+  </si>
+  <si>
+    <t>分布峰值，不受极端值影响</t>
+  </si>
+  <si>
+    <t>中间位置代表值，不受极端值影响</t>
+  </si>
+  <si>
+    <t>易受极端值影响</t>
+  </si>
+  <si>
+    <t>不唯一，可0可多</t>
+  </si>
+  <si>
+    <t>唯一</t>
+  </si>
+  <si>
+    <t>数据量大时才有意义</t>
+  </si>
+  <si>
+    <t>分布偏斜程度大时好用</t>
+  </si>
+  <si>
+    <t>对称分布时好用</t>
+  </si>
+  <si>
+    <t>分类数据的集中趋势测度值</t>
+  </si>
+  <si>
+    <t>顺序数据的集中趋势测度值</t>
+  </si>
+  <si>
+    <t>数值型数据的集中趋势测度值</t>
   </si>
 </sst>
 </file>
@@ -152,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -180,61 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +245,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +274,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,29 +345,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,13 +367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,12 +409,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,145 +535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,26 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,31 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +624,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,153 +647,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,10 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1911,7 +1953,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4597400" y="17932400"/>
+        <a:off x="7007225" y="17932400"/>
         <a:ext cx="1952625" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2183,17 +2225,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
@@ -2391,170 +2433,170 @@
       </c>
     </row>
     <row r="29" spans="10:13">
-      <c r="J29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="5" t="s">
+      <c r="J29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:13">
-      <c r="J30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="J30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:13">
-      <c r="J31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="10:13">
-      <c r="J32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="5" t="s">
+      <c r="J32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:13">
-      <c r="J33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:13">
-      <c r="J34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="J34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:13">
-      <c r="J35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="6" t="s">
+      <c r="J35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:13">
-      <c r="J36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="6" t="s">
+      <c r="J36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:13">
-      <c r="J37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="6" t="s">
+      <c r="J37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:13">
-      <c r="J38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="6" t="s">
+      <c r="J38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M38" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:13">
-      <c r="J39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="6" t="s">
+      <c r="J39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="10:13">
-      <c r="J40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="6" t="s">
+      <c r="J40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2850,6 +2892,63 @@
       </c>
       <c r="E128">
         <v>67</v>
+      </c>
+    </row>
+    <row r="142" ht="9" customHeight="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" ht="35" customHeight="1" spans="1:3">
+      <c r="A144" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" ht="27" customHeight="1" spans="1:3">
+      <c r="A145" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" ht="28" customHeight="1" spans="1:3">
+      <c r="A146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" ht="27" customHeight="1" spans="1:3">
+      <c r="A147" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" ht="29" customHeight="1" spans="1:3">
+      <c r="A148" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/统计学/test.xlsx
+++ b/统计学/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22485" windowHeight="9135"/>
+    <workbookView windowWidth="22485" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>性别</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>数值型数据的集中趋势测度值</t>
+  </si>
+  <si>
+    <t>分类数据</t>
+  </si>
+  <si>
+    <t>异众比率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>顺序数据</t>
+  </si>
+  <si>
+    <t>四分位差</t>
+  </si>
+  <si>
+    <t>数值型</t>
+  </si>
+  <si>
+    <t>方差，标准差</t>
   </si>
 </sst>
 </file>
@@ -222,13 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -244,31 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,37 +271,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,9 +290,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,14 +358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,7 +388,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +448,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,121 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,17 +606,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,26 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,15 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +702,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,137 +714,137 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +864,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1964,6 +1994,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="IQCLH1A]JH)@O49)ET`NTAK"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="28565475"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="DC~[G]V%22679RWY[M2VV)B"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="29184600"/>
+          <a:ext cx="1314450" cy="555625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>4257040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="I{${T4Y47J}Z6G{~U1X9JQ3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="29845000"/>
+          <a:ext cx="1885950" cy="4250690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2225,10 +2369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2951,6 +3095,33 @@
         <v>56</v>
       </c>
     </row>
+    <row r="151" ht="49" customHeight="1" spans="1:3">
+      <c r="A151" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" ht="52" customHeight="1" spans="1:2">
+      <c r="A152" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" ht="350" customHeight="1" spans="1:2">
+      <c r="A153" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B153" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
